--- a/timesheets/2020_timebook.xlsx
+++ b/timesheets/2020_timebook.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="June" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="August" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -801,4 +802,81 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TIMESHEET</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CNR</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>.Architects</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MONTH:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NAME:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PROJECT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DESCRIPTION OF WORK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OFFICE USE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/timesheets/2020_timebook.xlsx
+++ b/timesheets/2020_timebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="June" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="August" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="June" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="August" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -160,11 +160,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -198,6 +228,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +547,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10.5703125" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
@@ -639,7 +673,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="17" customWidth="1" style="10" min="1" max="1"/>
     <col width="48" customWidth="1" style="10" min="2" max="2"/>
@@ -810,26 +844,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="17" customWidth="1" style="10" min="1" max="1"/>
+    <col width="48" customWidth="1" style="10" min="2" max="2"/>
+    <col width="17" customWidth="1" style="10" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>TIMESHEET</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CNR</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>cnr</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>.Architects</t>
         </is>
@@ -843,7 +882,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>xxx</t>
+          <t>August 2020</t>
         </is>
       </c>
     </row>
@@ -853,26 +892,47 @@
           <t>NAME:</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>xxx</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="19" t="inlineStr">
         <is>
           <t>PROJECT</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="19" t="inlineStr">
         <is>
           <t>DESCRIPTION OF WORK</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="19" t="inlineStr">
         <is>
           <t>OFFICE USE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="inlineStr">
+        <is>
+          <t>Week4</t>
+        </is>
+      </c>
+      <c r="B7" s="20" t="n"/>
+      <c r="C7" s="20" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B8" s="20" t="inlineStr">
+        <is>
+          <t>cdcsdc</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>

--- a/timesheets/2020_timebook.xlsx
+++ b/timesheets/2020_timebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Template" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="June" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="August" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="June" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="August" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -547,7 +547,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.5703125" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
@@ -673,7 +673,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" style="10" min="1" max="1"/>
     <col width="48" customWidth="1" style="10" min="2" max="2"/>
@@ -850,7 +850,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" style="10" min="1" max="1"/>
     <col width="48" customWidth="1" style="10" min="2" max="2"/>

--- a/timesheets/2020_timebook.xlsx
+++ b/timesheets/2020_timebook.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14790" yWindow="2205" windowWidth="12885" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="June" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="August" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="August" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -54,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -64,104 +63,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="00000000"/>
       </left>
       <right style="thin">
@@ -194,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -212,26 +113,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,18 +424,18 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="10.5703125" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
-    <col width="22" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
+    <col width="10.5703125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="22" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="10">
+    <row r="1" ht="19.5" customHeight="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>TIMESHEET</t>
@@ -571,8 +452,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" s="10"/>
-    <row r="3" ht="19.5" customHeight="1" s="10">
+    <row r="2" ht="19.5" customHeight="1" s="1"/>
+    <row r="3" ht="19.5" customHeight="1" s="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>MONTH:</t>
@@ -584,7 +465,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" s="10">
+    <row r="4" ht="19.5" customHeight="1" s="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>NAME:</t>
@@ -596,8 +477,8 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" s="10"/>
-    <row r="6" ht="19.5" customHeight="1" s="10">
+    <row r="5" ht="19.5" customHeight="1" s="1"/>
+    <row r="6" ht="19.5" customHeight="1" s="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>PROJECT</t>
@@ -614,47 +495,47 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" s="10"/>
-    <row r="8" ht="19.5" customHeight="1" s="10"/>
-    <row r="9" ht="19.5" customHeight="1" s="10"/>
-    <row r="10" ht="19.5" customHeight="1" s="10"/>
-    <row r="11" ht="19.5" customHeight="1" s="10"/>
-    <row r="12" ht="19.5" customHeight="1" s="10"/>
-    <row r="13" ht="19.5" customHeight="1" s="10"/>
-    <row r="14" ht="19.5" customHeight="1" s="10"/>
-    <row r="15" ht="19.5" customHeight="1" s="10"/>
-    <row r="16" ht="19.5" customHeight="1" s="10"/>
-    <row r="17" ht="19.5" customHeight="1" s="10"/>
-    <row r="18" ht="19.5" customHeight="1" s="10"/>
-    <row r="19" ht="19.5" customHeight="1" s="10"/>
-    <row r="20" ht="19.5" customHeight="1" s="10"/>
-    <row r="21" ht="19.5" customHeight="1" s="10"/>
-    <row r="22" ht="19.5" customHeight="1" s="10"/>
-    <row r="23" ht="19.5" customHeight="1" s="10"/>
-    <row r="24" ht="19.5" customHeight="1" s="10"/>
-    <row r="25" ht="19.5" customHeight="1" s="10"/>
-    <row r="26" ht="19.5" customHeight="1" s="10"/>
-    <row r="27" ht="19.5" customHeight="1" s="10"/>
-    <row r="28" ht="19.5" customHeight="1" s="10"/>
-    <row r="29" ht="19.5" customHeight="1" s="10"/>
-    <row r="30" ht="19.5" customHeight="1" s="10"/>
-    <row r="31" ht="19.5" customHeight="1" s="10"/>
-    <row r="32" ht="19.5" customHeight="1" s="10"/>
-    <row r="33" ht="19.5" customHeight="1" s="10"/>
-    <row r="34" ht="19.5" customHeight="1" s="10"/>
-    <row r="35" ht="19.5" customHeight="1" s="10"/>
-    <row r="36" ht="19.5" customHeight="1" s="10"/>
-    <row r="37" ht="19.5" customHeight="1" s="10"/>
-    <row r="38" ht="19.5" customHeight="1" s="10"/>
-    <row r="39" ht="19.5" customHeight="1" s="10"/>
-    <row r="40" ht="19.5" customHeight="1" s="10"/>
-    <row r="41" ht="19.5" customHeight="1" s="10"/>
-    <row r="42" ht="19.5" customHeight="1" s="10"/>
-    <row r="43" ht="19.5" customHeight="1" s="10"/>
-    <row r="44" ht="19.5" customHeight="1" s="10"/>
-    <row r="45" ht="19.5" customHeight="1" s="10"/>
-    <row r="46" ht="19.5" customHeight="1" s="10"/>
-    <row r="47" ht="19.5" customHeight="1" s="10"/>
+    <row r="7" ht="19.5" customHeight="1" s="1"/>
+    <row r="8" ht="19.5" customHeight="1" s="1"/>
+    <row r="9" ht="19.5" customHeight="1" s="1"/>
+    <row r="10" ht="19.5" customHeight="1" s="1"/>
+    <row r="11" ht="19.5" customHeight="1" s="1"/>
+    <row r="12" ht="19.5" customHeight="1" s="1"/>
+    <row r="13" ht="19.5" customHeight="1" s="1"/>
+    <row r="14" ht="19.5" customHeight="1" s="1"/>
+    <row r="15" ht="19.5" customHeight="1" s="1"/>
+    <row r="16" ht="19.5" customHeight="1" s="1"/>
+    <row r="17" ht="19.5" customHeight="1" s="1"/>
+    <row r="18" ht="19.5" customHeight="1" s="1"/>
+    <row r="19" ht="19.5" customHeight="1" s="1"/>
+    <row r="20" ht="19.5" customHeight="1" s="1"/>
+    <row r="21" ht="19.5" customHeight="1" s="1"/>
+    <row r="22" ht="19.5" customHeight="1" s="1"/>
+    <row r="23" ht="19.5" customHeight="1" s="1"/>
+    <row r="24" ht="19.5" customHeight="1" s="1"/>
+    <row r="25" ht="19.5" customHeight="1" s="1"/>
+    <row r="26" ht="19.5" customHeight="1" s="1"/>
+    <row r="27" ht="19.5" customHeight="1" s="1"/>
+    <row r="28" ht="19.5" customHeight="1" s="1"/>
+    <row r="29" ht="19.5" customHeight="1" s="1"/>
+    <row r="30" ht="19.5" customHeight="1" s="1"/>
+    <row r="31" ht="19.5" customHeight="1" s="1"/>
+    <row r="32" ht="19.5" customHeight="1" s="1"/>
+    <row r="33" ht="19.5" customHeight="1" s="1"/>
+    <row r="34" ht="19.5" customHeight="1" s="1"/>
+    <row r="35" ht="19.5" customHeight="1" s="1"/>
+    <row r="36" ht="19.5" customHeight="1" s="1"/>
+    <row r="37" ht="19.5" customHeight="1" s="1"/>
+    <row r="38" ht="19.5" customHeight="1" s="1"/>
+    <row r="39" ht="19.5" customHeight="1" s="1"/>
+    <row r="40" ht="19.5" customHeight="1" s="1"/>
+    <row r="41" ht="19.5" customHeight="1" s="1"/>
+    <row r="42" ht="19.5" customHeight="1" s="1"/>
+    <row r="43" ht="19.5" customHeight="1" s="1"/>
+    <row r="44" ht="19.5" customHeight="1" s="1"/>
+    <row r="45" ht="19.5" customHeight="1" s="1"/>
+    <row r="46" ht="19.5" customHeight="1" s="1"/>
+    <row r="47" ht="19.5" customHeight="1" s="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -667,194 +548,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17" customWidth="1" style="10" min="1" max="1"/>
-    <col width="48" customWidth="1" style="10" min="2" max="2"/>
-    <col width="17" customWidth="1" style="10" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24.75" customHeight="1" s="10">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>TIMESHEET</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>cnr</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>.Architects</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MONTH:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>June 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NAME:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bernard Muller</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1" s="10">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>PROJECT</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>DESCRIPTION OF WORK</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>OFFICE USE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>Week3</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B9" s="14" t="inlineStr">
-        <is>
-          <t>- Beach villa Pool</t>
-        </is>
-      </c>
-      <c r="C9" s="15" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="16" t="n"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>- Details ggedone</t>
-        </is>
-      </c>
-      <c r="C10" s="16" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="16" t="n"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>- lekker games gejam en gecgat</t>
-        </is>
-      </c>
-      <c r="C11" s="16" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="16" t="n"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>- oiuvbeqjfvbnepfivbepifvbefjvbnepvbefvb</t>
-        </is>
-      </c>
-      <c r="C12" s="16" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="17" t="n"/>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>- skyfiorth 60000000000000000000 geluist</t>
-        </is>
-      </c>
-      <c r="C13" s="17" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="17" customWidth="1" style="10" min="1" max="1"/>
-    <col width="48" customWidth="1" style="10" min="2" max="2"/>
-    <col width="17" customWidth="1" style="10" min="3" max="3"/>
+    <col width="17" customWidth="1" style="1" min="1" max="1"/>
+    <col width="48" customWidth="1" style="1" min="2" max="2"/>
+    <col width="17" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -892,45 +596,50 @@
           <t>NAME:</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bernard Muller</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>PROJECT</t>
         </is>
       </c>
-      <c r="B6" s="19" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>DESCRIPTION OF WORK</t>
         </is>
       </c>
-      <c r="C6" s="19" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>OFFICE USE</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Week4</t>
         </is>
       </c>
-      <c r="B7" s="20" t="n"/>
-      <c r="C7" s="20" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B8" s="20" t="inlineStr">
-        <is>
-          <t>cdcsdc</t>
-        </is>
-      </c>
-      <c r="C8" s="20" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>*</t>
         </is>

--- a/timesheets/2020_timebook.xlsx
+++ b/timesheets/2020_timebook.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14790" yWindow="2205" windowWidth="12885" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Template" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="August" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="August" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="November" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -428,7 +429,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.5703125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -554,7 +555,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" style="1" min="1" max="1"/>
     <col width="48" customWidth="1" style="1" min="2" max="2"/>
@@ -648,4 +649,81 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TIMESHEET</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CNR</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>.Architects</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MONTH:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NAME:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PROJECT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DESCRIPTION OF WORK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OFFICE USE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/timesheets/2020_timebook.xlsx
+++ b/timesheets/2020_timebook.xlsx
@@ -657,26 +657,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" style="1" min="1" max="1"/>
+    <col width="48" customWidth="1" style="1" min="2" max="2"/>
+    <col width="17" customWidth="1" style="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>TIMESHEET</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CNR</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>cnr</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>.Architects</t>
         </is>
@@ -690,7 +695,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>xxx</t>
+          <t>November 2020</t>
         </is>
       </c>
     </row>
@@ -702,24 +707,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>xxx</t>
+          <t>tertert</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>PROJECT</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>DESCRIPTION OF WORK</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>OFFICE USE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Week1</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>rggergergr</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>

--- a/timesheets/2020_timebook.xlsx
+++ b/timesheets/2020_timebook.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14790" yWindow="2205" windowWidth="12885" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="November" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -54,12 +54,72 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -96,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -114,11 +174,87 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,7 +561,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -562,7 +698,7 @@
     <col width="17" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24.75" customHeight="1" s="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>TIMESHEET</t>
@@ -603,7 +739,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="21" customHeight="1" s="1">
       <c r="A6" s="7" t="inlineStr">
         <is>
           <t>PROJECT</t>
@@ -657,10 +793,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -670,7 +806,7 @@
     <col width="17" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24.75" customHeight="1" s="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>TIMESHEET</t>
@@ -707,48 +843,64 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tertert</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
+          <t>Bernard</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="1">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>PROJECT</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>DESCRIPTION OF WORK</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>OFFICE USE</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Week1</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" s="12" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="12" t="n"/>
+      <c r="C8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" s="12" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" s="12" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="n"/>
+      <c r="B11" s="12" t="n"/>
+      <c r="C11" s="12" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>rggergergr</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
+        <is>
+          <t>asdfsdfa</t>
+        </is>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
         <is>
           <t>*</t>
         </is>

--- a/timesheets/2020_timebook.xlsx
+++ b/timesheets/2020_timebook.xlsx
@@ -187,74 +187,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/timesheets/2020_timebook.xlsx
+++ b/timesheets/2020_timebook.xlsx
@@ -187,6 +187,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -725,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -838,6 +906,23 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="inlineStr">
+        <is>
+          <t>ergergerg</t>
+        </is>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
